--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/attachNetWork.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/attachNetWork.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,9 +42,6 @@
     <t>detail</t>
   </si>
   <si>
-    <t>the details</t>
-  </si>
-  <si>
     <t>vpc</t>
   </si>
   <si>
@@ -355,6 +352,10 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -754,14 +755,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -803,138 +803,138 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C15 A1:A15" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C3 A1:A15 C5:C15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>